--- a/data/trans_orig/CLASESOCIAL_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en País Vasco</t>
+          <t>Clase social de la persona entrevistada en País Vasco (tasa de respuesta: 97,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3965,7 +3965,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en Andalucia</t>
+          <t>Clase social de la persona entrevistada en Andalucia (tasa de respuesta: 98,49%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7384,7 +7384,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en C.Valenciana</t>
+          <t>Clase social de la persona entrevistada en C.Valenciana (tasa de respuesta: 82,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -10803,7 +10803,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Clase social de la persona entrevistada en Barcelona</t>
+          <t>Clase social de la persona entrevistada en Barcelona (tasa de respuesta: 99,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CLASESOCIAL_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R-Estudios-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4109</t>
+          <t>4719</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2985</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6097</t>
+          <t>6957</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>38972</t>
+          <t>39267</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>34847</t>
+          <t>34866</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>43964</t>
+          <t>43737</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>31,0%</t>
+          <t>32,76%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>27,72%</t>
+          <t>29,09%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>34,97%</t>
+          <t>36,49%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>43081</t>
+          <t>43985</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>37813</t>
+          <t>39233</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>48190</t>
+          <t>49590</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>24,82%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15866</t>
+          <t>15832</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12888</t>
+          <t>12910</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19403</t>
+          <t>19316</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>40666</t>
+          <t>36008</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>35830</t>
+          <t>31731</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>45306</t>
+          <t>40064</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>32,35%</t>
+          <t>30,04%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>28,5%</t>
+          <t>26,47%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>36,04%</t>
+          <t>33,43%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>56532</t>
+          <t>51840</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>50847</t>
+          <t>46527</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>62286</t>
+          <t>56839</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>25,94%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>24,03%</t>
+          <t>23,28%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>29,44%</t>
+          <t>28,45%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>31898</t>
+          <t>29733</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>27894</t>
+          <t>25872</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>35791</t>
+          <t>33183</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,16%</t>
+          <t>37,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>32,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>41,69%</t>
+          <t>41,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>29781</t>
+          <t>29292</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>26142</t>
+          <t>25316</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>34152</t>
+          <t>33332</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>21,12%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>27,16%</t>
+          <t>27,81%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>61679</t>
+          <t>59024</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>56229</t>
+          <t>53652</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>67715</t>
+          <t>64436</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>29,15%</t>
+          <t>29,54%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>26,58%</t>
+          <t>26,85%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>32,01%</t>
+          <t>32,25%</t>
         </is>
       </c>
     </row>
@@ -1075,32 +1075,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25998</t>
+          <t>21907</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22647</t>
+          <t>19077</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30085</t>
+          <t>25472</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,28%</t>
+          <t>27,4%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,38%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,04%</t>
+          <t>31,85%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1110,32 +1110,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11780</t>
+          <t>11611</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9299</t>
+          <t>8888</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14844</t>
+          <t>14392</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1145,32 +1145,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>37778</t>
+          <t>33518</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>32938</t>
+          <t>28878</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>43095</t>
+          <t>38193</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>19,11%</t>
         </is>
       </c>
     </row>
@@ -1188,27 +1188,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4213</t>
+          <t>4111</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2670</t>
+          <t>2659</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6944</t>
+          <t>6466</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -1223,32 +1223,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3603</t>
+          <t>2793</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2205</t>
+          <t>1706</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5659</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1258,32 +1258,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>7816</t>
+          <t>6903</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>5505</t>
+          <t>5058</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>10659</t>
+          <t>9386</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>4,7%</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3768</t>
+          <t>3662</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2370</t>
+          <t>2186</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5829</t>
+          <t>5553</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1336,32 +1336,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>918</t>
+          <t>887</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>388</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2320</t>
+          <t>2139</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1371,32 +1371,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>4686</t>
+          <t>4548</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>3106</t>
+          <t>3087</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>6968</t>
+          <t>6893</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,45%</t>
         </is>
       </c>
     </row>
@@ -1414,17 +1414,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>85851</t>
+          <t>79963</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>85851</t>
+          <t>79963</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>85851</t>
+          <t>79963</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>125722</t>
+          <t>119857</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>125722</t>
+          <t>119857</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>125722</t>
+          <t>119857</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1484,17 +1484,17 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>211572</t>
+          <t>199819</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>211572</t>
+          <t>199819</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>211572</t>
+          <t>199819</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1531,32 +1531,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>32940</t>
+          <t>41715</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28555</t>
+          <t>35657</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>38101</t>
+          <t>47897</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1566,32 +1566,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>67287</t>
+          <t>70803</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>60900</t>
+          <t>64156</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>74675</t>
+          <t>78700</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1601,32 +1601,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>100226</t>
+          <t>112518</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>92518</t>
+          <t>103563</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>108967</t>
+          <t>121787</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>13,66%</t>
         </is>
       </c>
     </row>
@@ -1644,32 +1644,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>58290</t>
+          <t>54845</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>51907</t>
+          <t>49007</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>64752</t>
+          <t>60482</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1679,32 +1679,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>86198</t>
+          <t>81911</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>79333</t>
+          <t>75422</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>93342</t>
+          <t>89184</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1714,32 +1714,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>144488</t>
+          <t>136756</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>134307</t>
+          <t>126465</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>153350</t>
+          <t>145529</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>16,33%</t>
         </is>
       </c>
     </row>
@@ -1757,32 +1757,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>129715</t>
+          <t>131384</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>120993</t>
+          <t>123421</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>138038</t>
+          <t>140151</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,17%</t>
+          <t>29,0%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,21%</t>
+          <t>27,24%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>31,04%</t>
+          <t>30,94%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1792,32 +1792,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>131728</t>
+          <t>136314</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>122938</t>
+          <t>128245</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>140543</t>
+          <t>145280</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>30,98%</t>
+          <t>31,1%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>28,92%</t>
+          <t>29,26%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>33,06%</t>
+          <t>33,15%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1827,27 +1827,27 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>261443</t>
+          <t>267698</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>249717</t>
+          <t>255595</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>272306</t>
+          <t>278977</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>30,06%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>28,71%</t>
+          <t>28,68%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
@@ -1870,32 +1870,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>124624</t>
+          <t>117567</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>115144</t>
+          <t>109668</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>132748</t>
+          <t>125844</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>25,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>29,85%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1905,32 +1905,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>42600</t>
+          <t>40721</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>37059</t>
+          <t>35607</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>48113</t>
+          <t>45990</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1940,32 +1940,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>167223</t>
+          <t>158288</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>157788</t>
+          <t>148821</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>177838</t>
+          <t>168466</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>17,76%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>16,7%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>18,9%</t>
         </is>
       </c>
     </row>
@@ -1983,32 +1983,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>50222</t>
+          <t>56154</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>44150</t>
+          <t>49802</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>55481</t>
+          <t>62333</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2018,32 +2018,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>67293</t>
+          <t>75228</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>60550</t>
+          <t>68068</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>73777</t>
+          <t>81909</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2053,32 +2053,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>117515</t>
+          <t>131382</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>109751</t>
+          <t>122089</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>126536</t>
+          <t>140955</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>13,7%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>15,81%</t>
         </is>
       </c>
     </row>
@@ -2096,32 +2096,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>48924</t>
+          <t>51366</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>43398</t>
+          <t>45226</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>54707</t>
+          <t>58015</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2131,32 +2131,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>30057</t>
+          <t>33296</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>25787</t>
+          <t>28709</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>35130</t>
+          <t>38508</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2166,32 +2166,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>78981</t>
+          <t>84662</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>72758</t>
+          <t>76932</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>87562</t>
+          <t>93044</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>10,44%</t>
         </is>
       </c>
     </row>
@@ -2209,17 +2209,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>444714</t>
+          <t>453032</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>444714</t>
+          <t>453032</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>444714</t>
+          <t>453032</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2244,17 +2244,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>425162</t>
+          <t>438273</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>425162</t>
+          <t>438273</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>425162</t>
+          <t>438273</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2279,17 +2279,17 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>869876</t>
+          <t>891304</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>869876</t>
+          <t>891304</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>869876</t>
+          <t>891304</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2326,32 +2326,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5824</t>
+          <t>7153</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4005</t>
+          <t>5113</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8128</t>
+          <t>10614</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2361,32 +2361,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>10285</t>
+          <t>10653</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>7745</t>
+          <t>7901</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>13434</t>
+          <t>13946</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2396,32 +2396,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>16110</t>
+          <t>17807</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>13056</t>
+          <t>13759</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>20467</t>
+          <t>21745</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>5,46%</t>
         </is>
       </c>
     </row>
@@ -2439,32 +2439,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2799</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1734</t>
+          <t>2426</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4414</t>
+          <t>6221</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2474,32 +2474,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5890</t>
+          <t>7433</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4146</t>
+          <t>5171</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8356</t>
+          <t>10294</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2509,32 +2509,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>8689</t>
+          <t>11495</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>6268</t>
+          <t>8620</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>11487</t>
+          <t>14821</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,72%</t>
         </is>
       </c>
     </row>
@@ -2552,32 +2552,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9352</t>
+          <t>10419</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7050</t>
+          <t>7848</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>12265</t>
+          <t>13671</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2587,32 +2587,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>17327</t>
+          <t>18421</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>14290</t>
+          <t>14911</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>20879</t>
+          <t>22763</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2622,32 +2622,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>26679</t>
+          <t>28840</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>22757</t>
+          <t>24072</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>31668</t>
+          <t>33946</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>8,52%</t>
         </is>
       </c>
     </row>
@@ -2665,32 +2665,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>13193</t>
+          <t>14297</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10157</t>
+          <t>11448</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16886</t>
+          <t>18017</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2700,32 +2700,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9109</t>
+          <t>9823</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>6624</t>
+          <t>7377</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11785</t>
+          <t>12826</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2735,32 +2735,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>22302</t>
+          <t>24120</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>18276</t>
+          <t>19810</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>26514</t>
+          <t>28809</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>7,23%</t>
         </is>
       </c>
     </row>
@@ -2778,32 +2778,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>26603</t>
+          <t>29992</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>22600</t>
+          <t>25630</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>31031</t>
+          <t>34521</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2813,32 +2813,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>38402</t>
+          <t>44420</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>34060</t>
+          <t>38637</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>43381</t>
+          <t>49476</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>22,47%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2848,32 +2848,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>65005</t>
+          <t>74412</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>59481</t>
+          <t>67918</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>72475</t>
+          <t>82642</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>20,74%</t>
         </is>
       </c>
     </row>
@@ -2891,32 +2891,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>93093</t>
+          <t>107422</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>87699</t>
+          <t>101273</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>98365</t>
+          <t>113616</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>61,71%</t>
+          <t>61,97%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>58,13%</t>
+          <t>58,42%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>65,2%</t>
+          <t>65,54%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2926,32 +2926,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>112078</t>
+          <t>134451</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>105784</t>
+          <t>127904</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>117761</t>
+          <t>142055</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>58,04%</t>
+          <t>59,7%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>54,78%</t>
+          <t>56,8%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>60,99%</t>
+          <t>63,08%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2961,32 +2961,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>205171</t>
+          <t>241873</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>196711</t>
+          <t>232137</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>213361</t>
+          <t>250100</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>59,65%</t>
+          <t>60,69%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>57,19%</t>
+          <t>58,25%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>62,03%</t>
+          <t>62,75%</t>
         </is>
       </c>
     </row>
@@ -3004,17 +3004,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>150865</t>
+          <t>173344</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>150865</t>
+          <t>173344</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>150865</t>
+          <t>173344</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>193091</t>
+          <t>225202</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>193091</t>
+          <t>225202</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>193091</t>
+          <t>225202</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3074,17 +3074,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>343956</t>
+          <t>398547</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>343956</t>
+          <t>398547</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>343956</t>
+          <t>398547</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3121,32 +3121,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>42873</t>
+          <t>53587</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>38195</t>
+          <t>46846</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>49180</t>
+          <t>60621</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3156,32 +3156,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>116545</t>
+          <t>120723</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>106997</t>
+          <t>111426</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>125451</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3191,32 +3191,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>159417</t>
+          <t>174310</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>149393</t>
+          <t>163416</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>169490</t>
+          <t>185308</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>12,44%</t>
         </is>
       </c>
     </row>
@@ -3234,32 +3234,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>76955</t>
+          <t>74738</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>69440</t>
+          <t>67564</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>84109</t>
+          <t>82202</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3269,32 +3269,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>132754</t>
+          <t>125352</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>123584</t>
+          <t>116632</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>142619</t>
+          <t>133848</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3304,32 +3304,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>209709</t>
+          <t>200091</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>197958</t>
+          <t>189230</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>220274</t>
+          <t>212569</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>14,27%</t>
         </is>
       </c>
     </row>
@@ -3347,32 +3347,32 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>170965</t>
+          <t>171536</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>160990</t>
+          <t>161120</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>181406</t>
+          <t>181228</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>25,09%</t>
+          <t>24,29%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,63%</t>
+          <t>22,81%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>26,62%</t>
+          <t>25,66%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3382,32 +3382,32 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>178836</t>
+          <t>184027</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>168009</t>
+          <t>174350</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>188349</t>
+          <t>195883</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>23,49%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>22,26%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>25,01%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3417,32 +3417,32 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>349801</t>
+          <t>355563</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>335007</t>
+          <t>340697</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>363770</t>
+          <t>369278</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>24,54%</t>
+          <t>23,87%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>23,5%</t>
+          <t>22,87%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>24,79%</t>
         </is>
       </c>
     </row>
@@ -3460,32 +3460,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>163815</t>
+          <t>153771</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>152720</t>
+          <t>144454</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>173192</t>
+          <t>163028</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>21,77%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>22,41%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3495,32 +3495,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>63489</t>
+          <t>62155</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>56894</t>
+          <t>55450</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>70743</t>
+          <t>69249</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3530,32 +3530,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>227303</t>
+          <t>215926</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>215784</t>
+          <t>204931</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>239633</t>
+          <t>228106</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>15,31%</t>
         </is>
       </c>
     </row>
@@ -3573,32 +3573,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>81038</t>
+          <t>90257</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>74265</t>
+          <t>82321</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>88819</t>
+          <t>98544</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3608,32 +3608,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>109299</t>
+          <t>122440</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>101793</t>
+          <t>113258</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>117250</t>
+          <t>131781</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3643,32 +3643,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>190337</t>
+          <t>212697</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>178588</t>
+          <t>200288</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>200434</t>
+          <t>225162</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>15,11%</t>
         </is>
       </c>
     </row>
@@ -3686,32 +3686,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>145785</t>
+          <t>162449</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>136346</t>
+          <t>152643</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>155809</t>
+          <t>172753</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>21,39%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3721,32 +3721,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>143053</t>
+          <t>168634</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>133713</t>
+          <t>157596</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>152509</t>
+          <t>179410</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>21,53%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>20,12%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3756,32 +3756,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>288838</t>
+          <t>331083</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>275841</t>
+          <t>316583</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>303538</t>
+          <t>346023</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>22,23%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>21,25%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>23,23%</t>
         </is>
       </c>
     </row>
@@ -3799,17 +3799,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>681430</t>
+          <t>706338</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>681430</t>
+          <t>706338</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>681430</t>
+          <t>706338</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3834,17 +3834,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>743975</t>
+          <t>783332</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>743975</t>
+          <t>783332</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>743975</t>
+          <t>783332</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3869,17 +3869,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1425404</t>
+          <t>1489670</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1425404</t>
+          <t>1489670</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1425404</t>
+          <t>1489670</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -4160,12 +4160,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>571</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7110</t>
+          <t>7017</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -4175,12 +4175,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -4195,12 +4195,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>163346</t>
+          <t>164289</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>196687</t>
+          <t>195517</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -4210,12 +4210,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>41,27%</t>
+          <t>41,51%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>49,7%</t>
+          <t>49,4%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -4230,12 +4230,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>164181</t>
+          <t>164561</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>203116</t>
+          <t>203244</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -4245,12 +4245,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>26,38%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>32,63%</t>
+          <t>32,65%</t>
         </is>
       </c>
     </row>
@@ -4273,12 +4273,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45313</t>
+          <t>46317</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>71067</t>
+          <t>71462</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -4288,12 +4288,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>31,53%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -4308,12 +4308,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>115343</t>
+          <t>116556</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>148001</t>
+          <t>147395</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>29,45%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>37,4%</t>
+          <t>37,24%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -4343,12 +4343,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>169687</t>
+          <t>167248</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>210880</t>
+          <t>210284</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -4358,12 +4358,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>27,26%</t>
+          <t>26,87%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>33,88%</t>
+          <t>33,79%</t>
         </is>
       </c>
     </row>
@@ -4386,12 +4386,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>98819</t>
+          <t>96858</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>128102</t>
+          <t>126492</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4401,12 +4401,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>43,6%</t>
+          <t>42,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>56,52%</t>
+          <t>55,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -4421,12 +4421,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>40583</t>
+          <t>40248</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>60506</t>
+          <t>60121</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4436,12 +4436,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -4456,12 +4456,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>143734</t>
+          <t>142421</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>183490</t>
+          <t>182037</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4471,12 +4471,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>22,88%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>29,48%</t>
+          <t>29,25%</t>
         </is>
       </c>
     </row>
@@ -4499,12 +4499,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28060</t>
+          <t>27471</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>46981</t>
+          <t>47246</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4514,12 +4514,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4534,12 +4534,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17582</t>
+          <t>17160</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32460</t>
+          <t>31809</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4549,12 +4549,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4569,12 +4569,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>49456</t>
+          <t>48914</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>72968</t>
+          <t>73083</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4584,12 +4584,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>11,74%</t>
         </is>
       </c>
     </row>
@@ -4612,12 +4612,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5865</t>
+          <t>5719</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18537</t>
+          <t>17855</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4627,12 +4627,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -4647,12 +4647,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3828</t>
+          <t>3544</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>11812</t>
+          <t>11571</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4662,12 +4662,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4682,12 +4682,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>11510</t>
+          <t>11309</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>26377</t>
+          <t>25309</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4697,12 +4697,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,07%</t>
         </is>
       </c>
     </row>
@@ -4725,12 +4725,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2863</t>
+          <t>3108</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11012</t>
+          <t>12220</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4740,12 +4740,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -4760,12 +4760,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2198</t>
+          <t>2509</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11141</t>
+          <t>11641</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4775,12 +4775,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -4795,12 +4795,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>7034</t>
+          <t>6525</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>19384</t>
+          <t>19132</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4810,12 +4810,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,07%</t>
         </is>
       </c>
     </row>
@@ -4955,12 +4955,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>80901</t>
+          <t>81785</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>193289</t>
+          <t>191867</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4970,12 +4970,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4990,12 +4990,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>168678</t>
+          <t>173180</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>338633</t>
+          <t>342989</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -5005,12 +5005,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>24,62%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -5025,12 +5025,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>294133</t>
+          <t>295544</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>503279</t>
+          <t>503550</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -5040,12 +5040,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>18,15%</t>
         </is>
       </c>
     </row>
@@ -5068,12 +5068,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>75353</t>
+          <t>82693</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>190871</t>
+          <t>192008</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -5083,12 +5083,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>182844</t>
+          <t>179837</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>445175</t>
+          <t>455572</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -5118,12 +5118,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>32,37%</t>
+          <t>33,13%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -5138,12 +5138,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>319793</t>
+          <t>313351</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>609840</t>
+          <t>634181</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -5153,12 +5153,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>22,85%</t>
         </is>
       </c>
     </row>
@@ -5181,12 +5181,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>218189</t>
+          <t>225312</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>486279</t>
+          <t>489891</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -5196,12 +5196,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,74%</t>
+          <t>35,0%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -5216,12 +5216,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>386451</t>
+          <t>381867</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>854700</t>
+          <t>852668</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -5231,12 +5231,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>27,77%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>62,15%</t>
+          <t>62,0%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>725812</t>
+          <t>700850</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>1342477</t>
+          <t>1308885</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -5266,12 +5266,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>26,16%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>48,38%</t>
+          <t>47,17%</t>
         </is>
       </c>
     </row>
@@ -5294,12 +5294,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>203339</t>
+          <t>204756</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>862694</t>
+          <t>817491</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -5309,12 +5309,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>61,64%</t>
+          <t>58,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -5329,12 +5329,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>38240</t>
+          <t>38829</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>83821</t>
+          <t>85833</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -5344,12 +5344,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -5364,12 +5364,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>248089</t>
+          <t>247117</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1104543</t>
+          <t>1173362</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -5379,12 +5379,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>39,81%</t>
+          <t>42,29%</t>
         </is>
       </c>
     </row>
@@ -5407,12 +5407,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>121821</t>
+          <t>129142</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>274761</t>
+          <t>277870</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5422,12 +5422,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>19,85%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -5442,12 +5442,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>98481</t>
+          <t>96296</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>199912</t>
+          <t>199615</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5457,12 +5457,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>257035</t>
+          <t>269651</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>449647</t>
+          <t>454478</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>16,38%</t>
         </is>
       </c>
     </row>
@@ -5520,12 +5520,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>46484</t>
+          <t>45154</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>110468</t>
+          <t>112466</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5535,12 +5535,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5555,12 +5555,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>30036</t>
+          <t>30986</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>66280</t>
+          <t>66256</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5570,7 +5570,7 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>93712</t>
+          <t>96113</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>166974</t>
+          <t>171579</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>6,18%</t>
         </is>
       </c>
     </row>
@@ -5750,12 +5750,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>12274</t>
+          <t>12280</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>39932</t>
+          <t>36911</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -5785,12 +5785,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>22613</t>
+          <t>23739</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>48356</t>
+          <t>48261</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5800,12 +5800,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -5820,12 +5820,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>39527</t>
+          <t>40634</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>73589</t>
+          <t>75382</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5835,12 +5835,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>8,52%</t>
         </is>
       </c>
     </row>
@@ -5863,12 +5863,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1921</t>
+          <t>2065</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11876</t>
+          <t>12046</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5878,12 +5878,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5898,12 +5898,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6986</t>
+          <t>6962</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>19921</t>
+          <t>18888</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5913,12 +5913,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5933,12 +5933,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>10919</t>
+          <t>11199</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>26752</t>
+          <t>26308</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5948,12 +5948,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>2,97%</t>
         </is>
       </c>
     </row>
@@ -5976,12 +5976,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>21714</t>
+          <t>21043</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>47884</t>
+          <t>47813</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5991,12 +5991,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -6011,12 +6011,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>30089</t>
+          <t>31018</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>53200</t>
+          <t>54358</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -6026,12 +6026,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -6046,12 +6046,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>57678</t>
+          <t>57970</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>92934</t>
+          <t>90291</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -6061,12 +6061,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>10,21%</t>
         </is>
       </c>
     </row>
@@ -6089,12 +6089,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11180</t>
+          <t>10586</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>31464</t>
+          <t>31063</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -6104,12 +6104,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -6124,12 +6124,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>5271</t>
+          <t>5519</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>16921</t>
+          <t>16930</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
@@ -6159,12 +6159,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>18227</t>
+          <t>18651</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>42948</t>
+          <t>41960</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -6174,12 +6174,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>4,74%</t>
         </is>
       </c>
     </row>
@@ -6202,12 +6202,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>77705</t>
+          <t>79028</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>114230</t>
+          <t>113866</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -6217,12 +6217,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -6237,12 +6237,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>81567</t>
+          <t>79591</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>114514</t>
+          <t>110153</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -6252,12 +6252,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -6272,12 +6272,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>167759</t>
+          <t>167959</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>215187</t>
+          <t>216323</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -6287,12 +6287,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>24,45%</t>
         </is>
       </c>
     </row>
@@ -6315,12 +6315,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>253182</t>
+          <t>253699</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>298541</t>
+          <t>298536</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>56,17%</t>
+          <t>56,28%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -6350,12 +6350,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>222605</t>
+          <t>224756</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>260648</t>
+          <t>264041</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -6365,12 +6365,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>51,31%</t>
+          <t>51,81%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>60,08%</t>
+          <t>60,86%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -6385,12 +6385,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>490867</t>
+          <t>492085</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>549645</t>
+          <t>550814</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -6400,12 +6400,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>55,49%</t>
+          <t>55,63%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>62,14%</t>
+          <t>62,27%</t>
         </is>
       </c>
     </row>
@@ -6545,12 +6545,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>108990</t>
+          <t>111159</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>221756</t>
+          <t>217950</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6560,12 +6560,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6580,12 +6580,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>346619</t>
+          <t>346423</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>559871</t>
+          <t>560032</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6595,12 +6595,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>25,4%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6615,12 +6615,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>523445</t>
+          <t>517683</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>748748</t>
+          <t>746421</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6630,12 +6630,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>17,43%</t>
         </is>
       </c>
     </row>
@@ -6658,12 +6658,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>132037</t>
+          <t>140970</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>253740</t>
+          <t>254372</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6673,12 +6673,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6693,12 +6693,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>329067</t>
+          <t>324972</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>624675</t>
+          <t>613892</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6708,12 +6708,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>523245</t>
+          <t>505715</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>821835</t>
+          <t>822688</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6743,12 +6743,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>19,21%</t>
         </is>
       </c>
     </row>
@@ -6771,12 +6771,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>346265</t>
+          <t>352329</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>622589</t>
+          <t>624645</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6786,12 +6786,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>29,97%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -6806,12 +6806,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>456609</t>
+          <t>464836</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>1090413</t>
+          <t>1064900</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6821,12 +6821,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>20,71%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>49,46%</t>
+          <t>48,3%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -6841,12 +6841,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>962463</t>
+          <t>968206</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1686772</t>
+          <t>1756777</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6856,12 +6856,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>22,48%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>39,39%</t>
+          <t>41,03%</t>
         </is>
       </c>
     </row>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>252423</t>
+          <t>247874</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1006463</t>
+          <t>1005491</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -6899,12 +6899,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>48,46%</t>
+          <t>48,41%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -6919,12 +6919,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>71078</t>
+          <t>73398</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>119359</t>
+          <t>119376</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -6934,7 +6934,7 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
@@ -6954,12 +6954,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>330241</t>
+          <t>333084</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>1213832</t>
+          <t>1304527</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -6969,12 +6969,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>28,35%</t>
+          <t>30,47%</t>
         </is>
       </c>
     </row>
@@ -6997,12 +6997,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>205008</t>
+          <t>218666</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>383306</t>
+          <t>381950</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -7012,12 +7012,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -7032,12 +7032,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>192176</t>
+          <t>185302</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>304012</t>
+          <t>302379</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -7047,12 +7047,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -7067,12 +7067,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>473454</t>
+          <t>469710</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>663828</t>
+          <t>666123</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -7082,12 +7082,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>15,56%</t>
         </is>
       </c>
     </row>
@@ -7110,12 +7110,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>230268</t>
+          <t>240688</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>425265</t>
+          <t>429485</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -7125,12 +7125,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -7145,12 +7145,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>213813</t>
+          <t>209176</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>344572</t>
+          <t>344529</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -7160,7 +7160,7 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
@@ -7180,12 +7180,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>531203</t>
+          <t>526157</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>744853</t>
+          <t>756935</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -7195,12 +7195,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>17,68%</t>
         </is>
       </c>
     </row>
@@ -10998,12 +10998,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5144</t>
+          <t>5234</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19395</t>
+          <t>20553</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -11013,12 +11013,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -11033,12 +11033,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12260</t>
+          <t>11769</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>25236</t>
+          <t>25151</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -11048,12 +11048,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>21,09%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -11068,12 +11068,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>21006</t>
+          <t>19995</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>40800</t>
+          <t>40551</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -11083,12 +11083,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>18,62%</t>
         </is>
       </c>
     </row>
@@ -11111,12 +11111,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6425</t>
+          <t>6057</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20787</t>
+          <t>21551</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -11126,12 +11126,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>21,87%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -11146,12 +11146,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27912</t>
+          <t>27499</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>46482</t>
+          <t>45767</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -11161,12 +11161,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>38,99%</t>
+          <t>38,39%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -11181,12 +11181,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>36498</t>
+          <t>36641</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>61408</t>
+          <t>61169</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -11196,12 +11196,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>28,2%</t>
+          <t>28,09%</t>
         </is>
       </c>
     </row>
@@ -11224,12 +11224,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31521</t>
+          <t>31172</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>53159</t>
+          <t>53771</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -11239,12 +11239,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>31,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>53,94%</t>
+          <t>54,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -11259,12 +11259,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>27274</t>
+          <t>26609</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>45199</t>
+          <t>45217</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -11274,12 +11274,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>22,32%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>37,92%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -11294,12 +11294,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>64282</t>
+          <t>64031</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>94360</t>
+          <t>93167</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -11309,12 +11309,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>29,4%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>43,33%</t>
+          <t>42,78%</t>
         </is>
       </c>
     </row>
@@ -11337,12 +11337,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16330</t>
+          <t>16716</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33154</t>
+          <t>34170</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -11352,12 +11352,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>34,67%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -11372,12 +11372,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15372</t>
+          <t>15078</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32254</t>
+          <t>31492</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -11387,12 +11387,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>27,05%</t>
+          <t>26,41%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -11407,12 +11407,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>36004</t>
+          <t>37177</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>59503</t>
+          <t>63061</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -11422,12 +11422,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>28,96%</t>
         </is>
       </c>
     </row>
@@ -11450,12 +11450,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4057</t>
+          <t>4246</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15489</t>
+          <t>16724</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -11465,12 +11465,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -11485,12 +11485,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3301</t>
+          <t>3113</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>10530</t>
+          <t>10342</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -11500,12 +11500,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -11520,12 +11520,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>8673</t>
+          <t>8442</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>22225</t>
+          <t>21468</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -11535,12 +11535,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>9,86%</t>
         </is>
       </c>
     </row>
@@ -11563,12 +11563,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>189</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6697</t>
+          <t>5205</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -11578,82 +11578,82 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
+          <t>0,19%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5,28%</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1135</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,27%</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,05%</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,95%</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>5634</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
           <t>0,23%</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>6,8%</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>1283</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>0,27%</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>0,05%</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>1,08%</t>
-        </is>
-      </c>
-      <c r="Q9" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>1954</t>
-        </is>
-      </c>
-      <c r="S9" s="2" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
-      <c r="T9" s="2" t="inlineStr">
-        <is>
-          <t>5655</t>
-        </is>
-      </c>
-      <c r="U9" s="2" t="inlineStr">
-        <is>
-          <t>0,9%</t>
-        </is>
-      </c>
-      <c r="V9" s="2" t="inlineStr">
-        <is>
-          <t>0,27%</t>
-        </is>
-      </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,59%</t>
         </is>
       </c>
     </row>
@@ -11793,12 +11793,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17184</t>
+          <t>17575</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29801</t>
+          <t>29806</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -11808,7 +11808,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -11828,12 +11828,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>32026</t>
+          <t>31580</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>47240</t>
+          <t>47251</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
@@ -11863,12 +11863,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>52539</t>
+          <t>53097</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>72297</t>
+          <t>74496</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -11878,12 +11878,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>10,5%</t>
         </is>
       </c>
     </row>
@@ -11906,12 +11906,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>30202</t>
+          <t>29782</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>46513</t>
+          <t>47130</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -11921,12 +11921,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -11941,12 +11941,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>40227</t>
+          <t>40545</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>60721</t>
+          <t>60271</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -11956,12 +11956,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -11976,12 +11976,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>74837</t>
+          <t>74332</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>100216</t>
+          <t>101387</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -11991,12 +11991,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>10,55%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>14,29%</t>
         </is>
       </c>
     </row>
@@ -12019,12 +12019,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94005</t>
+          <t>95011</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>119024</t>
+          <t>119034</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -12034,7 +12034,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,34%</t>
+          <t>26,62%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -12054,12 +12054,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>84539</t>
+          <t>84883</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>108671</t>
+          <t>109531</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -12069,12 +12069,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>24,07%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>30,82%</t>
+          <t>31,06%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -12089,12 +12089,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>184585</t>
+          <t>187126</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>221575</t>
+          <t>220903</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -12104,12 +12104,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>26,02%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>31,23%</t>
+          <t>31,13%</t>
         </is>
       </c>
     </row>
@@ -12132,12 +12132,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>52884</t>
+          <t>53389</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>73612</t>
+          <t>72831</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -12147,82 +12147,82 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>14,96%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>20,41%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>30214</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>23517</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>38251</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>8,57%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>6,67%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>10,85%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>92495</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>80794</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>105179</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>13,04%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>11,39%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
           <t>14,82%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>20,63%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>30214</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>23220</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>37576</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>8,57%</t>
-        </is>
-      </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>6,58%</t>
-        </is>
-      </c>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>10,66%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>199</t>
-        </is>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>92495</t>
-        </is>
-      </c>
-      <c r="S14" s="2" t="inlineStr">
-        <is>
-          <t>79500</t>
-        </is>
-      </c>
-      <c r="T14" s="2" t="inlineStr">
-        <is>
-          <t>105926</t>
-        </is>
-      </c>
-      <c r="U14" s="2" t="inlineStr">
-        <is>
-          <t>13,04%</t>
-        </is>
-      </c>
-      <c r="V14" s="2" t="inlineStr">
-        <is>
-          <t>11,2%</t>
-        </is>
-      </c>
-      <c r="W14" s="2" t="inlineStr">
-        <is>
-          <t>14,93%</t>
         </is>
       </c>
     </row>
@@ -12245,12 +12245,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>74149</t>
+          <t>73111</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>95641</t>
+          <t>94916</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>20,49%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>26,6%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -12280,12 +12280,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>95822</t>
+          <t>95624</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>118778</t>
+          <t>119472</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -12295,12 +12295,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>27,17%</t>
+          <t>27,12%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>33,68%</t>
+          <t>33,88%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -12315,12 +12315,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>174559</t>
+          <t>174093</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>206874</t>
+          <t>207317</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -12330,12 +12330,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>24,6%</t>
+          <t>24,54%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>29,22%</t>
         </is>
       </c>
     </row>
@@ -12358,12 +12358,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>35132</t>
+          <t>35194</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>51017</t>
+          <t>51407</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -12373,12 +12373,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -12393,12 +12393,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>24188</t>
+          <t>23672</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>38661</t>
+          <t>37839</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -12408,12 +12408,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -12428,12 +12428,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>62959</t>
+          <t>63591</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>84406</t>
+          <t>86074</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -12443,12 +12443,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>12,13%</t>
         </is>
       </c>
     </row>
@@ -12588,12 +12588,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>581</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3287</t>
+          <t>3259</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -12603,12 +12603,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -12623,12 +12623,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>3439</t>
+          <t>3221</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>10692</t>
+          <t>10822</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -12638,12 +12638,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -12658,12 +12658,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>4622</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>13002</t>
+          <t>12607</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -12673,12 +12673,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,5%</t>
         </is>
       </c>
     </row>
@@ -12701,12 +12701,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1838</t>
+          <t>1914</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8159</t>
+          <t>8469</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -12716,12 +12716,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -12736,12 +12736,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4814</t>
+          <t>4681</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>14793</t>
+          <t>14244</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -12751,12 +12751,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -12771,12 +12771,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>8077</t>
+          <t>7755</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>19253</t>
+          <t>19029</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -12786,12 +12786,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,77%</t>
         </is>
       </c>
     </row>
@@ -12814,12 +12814,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>9989</t>
+          <t>9798</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>20032</t>
+          <t>20025</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -12829,7 +12829,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -12849,12 +12849,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>19117</t>
+          <t>19293</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>35075</t>
+          <t>34938</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -12864,12 +12864,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -12884,12 +12884,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>31257</t>
+          <t>32416</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>51130</t>
+          <t>50438</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -12899,12 +12899,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>9,98%</t>
         </is>
       </c>
     </row>
@@ -12927,12 +12927,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5952</t>
+          <t>6329</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14595</t>
+          <t>15025</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -12942,12 +12942,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -12962,12 +12962,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1916</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>8446</t>
+          <t>7882</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -12977,12 +12977,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -12997,12 +12997,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>9040</t>
+          <t>9408</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>19642</t>
+          <t>20091</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -13012,12 +13012,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,98%</t>
         </is>
       </c>
     </row>
@@ -13040,12 +13040,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>26852</t>
+          <t>26382</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>40918</t>
+          <t>41438</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -13055,12 +13055,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -13075,12 +13075,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>47981</t>
+          <t>47985</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>66500</t>
+          <t>66772</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -13095,7 +13095,7 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>23,72%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -13110,12 +13110,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>79119</t>
+          <t>79330</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>103203</t>
+          <t>103984</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -13125,12 +13125,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>20,58%</t>
         </is>
       </c>
     </row>
@@ -13153,12 +13153,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>151133</t>
+          <t>152003</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>169518</t>
+          <t>169752</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -13168,12 +13168,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>67,54%</t>
+          <t>67,93%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>75,76%</t>
+          <t>75,86%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -13188,12 +13188,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>167432</t>
+          <t>166756</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>190895</t>
+          <t>190713</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -13203,12 +13203,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>59,48%</t>
+          <t>59,24%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>67,82%</t>
+          <t>67,75%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -13223,12 +13223,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>324459</t>
+          <t>324650</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>354539</t>
+          <t>354245</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -13238,12 +13238,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>64,22%</t>
+          <t>64,26%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>70,17%</t>
+          <t>70,11%</t>
         </is>
       </c>
     </row>
@@ -13383,12 +13383,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>27313</t>
+          <t>26928</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>47793</t>
+          <t>47967</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -13398,12 +13398,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -13418,12 +13418,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>52682</t>
+          <t>52840</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>73271</t>
+          <t>73736</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -13433,12 +13433,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -13453,12 +13453,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>84468</t>
+          <t>85536</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>113950</t>
+          <t>116438</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -13468,12 +13468,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>8,13%</t>
         </is>
       </c>
     </row>
@@ -13496,12 +13496,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>43491</t>
+          <t>42654</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>67010</t>
+          <t>66013</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -13511,12 +13511,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -13531,12 +13531,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>81297</t>
+          <t>80595</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>110650</t>
+          <t>111840</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -13546,12 +13546,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -13566,12 +13566,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>130111</t>
+          <t>131249</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>169294</t>
+          <t>168965</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -13581,12 +13581,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>11,79%</t>
         </is>
       </c>
     </row>
@@ -13609,12 +13609,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>145636</t>
+          <t>145182</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>182580</t>
+          <t>181106</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -13624,12 +13624,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>21,38%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>26,88%</t>
+          <t>26,67%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -13644,12 +13644,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>141670</t>
+          <t>143234</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>176832</t>
+          <t>176459</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -13659,12 +13659,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -13679,12 +13679,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>296397</t>
+          <t>298464</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>348568</t>
+          <t>350355</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -13694,12 +13694,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>24,46%</t>
         </is>
       </c>
     </row>
@@ -13722,12 +13722,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>81824</t>
+          <t>82720</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>111346</t>
+          <t>111792</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -13737,12 +13737,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -13757,12 +13757,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>46974</t>
+          <t>46012</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>70907</t>
+          <t>70543</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -13772,12 +13772,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -13792,12 +13792,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>135564</t>
+          <t>135967</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>173345</t>
+          <t>173675</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -13807,12 +13807,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>12,12%</t>
         </is>
       </c>
     </row>
@@ -13835,12 +13835,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>111432</t>
+          <t>110857</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>140736</t>
+          <t>138622</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -13850,12 +13850,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>16,41%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -13875,7 +13875,7 @@
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>184841</t>
+          <t>184082</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -13890,7 +13890,7 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>24,54%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -13905,12 +13905,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>274259</t>
+          <t>273368</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>315373</t>
+          <t>316999</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -13920,12 +13920,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>22,13%</t>
         </is>
       </c>
     </row>
@@ -13948,12 +13948,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>188260</t>
+          <t>186665</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>222006</t>
+          <t>221333</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -13963,12 +13963,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>27,72%</t>
+          <t>27,48%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>32,69%</t>
+          <t>32,59%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -13983,12 +13983,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>194482</t>
+          <t>194354</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>227372</t>
+          <t>227893</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -13998,12 +13998,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>25,8%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -14018,12 +14018,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>393314</t>
+          <t>390797</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>439918</t>
+          <t>441039</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -14033,12 +14033,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>27,28%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>30,71%</t>
+          <t>30,79%</t>
         </is>
       </c>
     </row>
